--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_idn_q.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_idn_q.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -24,10 +24,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Omar</author>
+    <author>Eduardo</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -621,6 +621,15 @@
   </si>
   <si>
     <t>DIF</t>
+  </si>
+  <si>
+    <t>Código P.</t>
+  </si>
+  <si>
+    <t>Régimen Fiscal</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -676,7 +685,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,8 +710,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFDCDCDC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -931,12 +946,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -962,15 +1012,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -993,6 +1036,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1299,13 +1366,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AF36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD20"/>
+      <selection pane="bottomRight" activeCell="U1" sqref="U1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,111 +1385,233 @@
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="18" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="43" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" customWidth="1"/>
-    <col min="22" max="25" width="9.7109375" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" customWidth="1"/>
-    <col min="30" max="31" width="9.140625" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="18" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" customWidth="1"/>
+    <col min="22" max="22" width="29.7109375" customWidth="1"/>
+    <col min="23" max="23" width="23" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" customWidth="1"/>
+    <col min="28" max="28" width="19.7109375" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" customWidth="1"/>
+    <col min="31" max="32" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:32" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="H1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="L1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="P1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="37"/>
+      <c r="R1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="S1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="21" t="s">
+      <c r="T1" s="37"/>
+      <c r="U1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="37"/>
+      <c r="W1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="Y1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="21" t="s">
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="21" t="s">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="AF1" s="38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K4" s="22"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K5" s="22"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K7" s="22"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K8" s="22"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K16" s="22"/>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="22"/>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="22"/>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="22"/>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="22"/>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="22"/>
+    </row>
+    <row r="26" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="22"/>
+    </row>
+    <row r="27" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="22"/>
+    </row>
+    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="22"/>
+    </row>
+    <row r="29" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="22"/>
+    </row>
+    <row r="30" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="22"/>
+    </row>
+    <row r="31" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="22"/>
+    </row>
+    <row r="32" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="22"/>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="22"/>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="22"/>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="J1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="cellIs" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -1537,90 +1726,90 @@
       <c r="AV1" s="8"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="24" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="24" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="26" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="27"/>
-      <c r="W2" s="24" t="s">
+      <c r="V2" s="26"/>
+      <c r="W2" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="26" t="s">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="24" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="26" t="s">
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="24" t="s">
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="26" t="s">
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="24" t="s">
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="26" t="s">
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="24" t="s">
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="26" t="s">
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="24" t="s">
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="26" t="s">
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="24" t="s">
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="AV2" s="25"/>
+      <c r="AV2" s="24"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1800,7 +1989,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1888,57 +2077,57 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="30" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="29" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2089,10 +2278,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="19" t="s">
         <v>105</v>
       </c>

--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_idn_q.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_idn_q.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="114">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -594,12 +594,6 @@
   </si>
   <si>
     <t>FechaInicioRelLaboral</t>
-  </si>
-  <si>
-    <t>276/009</t>
-  </si>
-  <si>
-    <t>Reembolso infonavit</t>
   </si>
   <si>
     <t>Deducciones</t>
@@ -986,7 +980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1008,16 +1002,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1026,40 +1035,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1368,7 +1359,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1409,193 +1400,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="32" t="s">
+      <c r="F1" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="27"/>
+      <c r="H1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="24" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="29"/>
+      <c r="U1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="29"/>
+      <c r="W1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="N1" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="37"/>
-      <c r="U1" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF1" s="38" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="2" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K2" s="21"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="K3" s="22"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="K4" s="22"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="K5" s="22"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="K6" s="22"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="K7" s="22"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="K8" s="22"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="K9" s="22"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="K10" s="22"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="K11" s="22"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="K12" s="22"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="K13" s="22"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="K14" s="22"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="K15" s="22"/>
+      <c r="K15" s="21"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="K16" s="22"/>
+      <c r="K16" s="21"/>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K17" s="22"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K18" s="22"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K19" s="22"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K20" s="22"/>
+      <c r="K20" s="21"/>
     </row>
     <row r="21" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K21" s="22"/>
+      <c r="K21" s="21"/>
     </row>
     <row r="22" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="22"/>
+      <c r="K22" s="21"/>
     </row>
     <row r="23" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="22"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="22"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="22"/>
+      <c r="K25" s="21"/>
     </row>
     <row r="26" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="22"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="22"/>
+      <c r="K27" s="21"/>
     </row>
     <row r="28" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="22"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="29" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="22"/>
+      <c r="K29" s="21"/>
     </row>
     <row r="30" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="22"/>
+      <c r="K30" s="21"/>
     </row>
     <row r="31" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="22"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="22"/>
+      <c r="K32" s="21"/>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="22"/>
+      <c r="K33" s="21"/>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="22"/>
+      <c r="K34" s="21"/>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="22"/>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="22"/>
+      <c r="K36" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1726,90 +1717,90 @@
       <c r="AV1" s="8"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="23" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25" t="s">
+      <c r="H2" s="33"/>
+      <c r="I2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="23" t="s">
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="26"/>
-      <c r="W2" s="23" t="s">
+      <c r="V2" s="31"/>
+      <c r="W2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="25" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="23" t="s">
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="25" t="s">
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="23" t="s">
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="25" t="s">
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="23" t="s">
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="25" t="s">
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="23" t="s">
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="25" t="s">
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="23" t="s">
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="25" t="s">
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="23" t="s">
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="AV2" s="24"/>
+      <c r="AV2" s="33"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1959,6 +1950,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="AS2:AT2"/>
@@ -1968,16 +1969,6 @@
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:T2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
@@ -2077,57 +2068,57 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="29" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="U2" s="37" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2195,26 +2186,26 @@
       <c r="U3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="X3" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="Y3" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="Z3" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="Y3" s="20" t="s">
+      <c r="AA3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="AB3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AA3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -2225,6 +2216,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="L2"/>
+    <mergeCell ref="M2"/>
+    <mergeCell ref="N2"/>
     <mergeCell ref="T2"/>
     <mergeCell ref="U2"/>
     <mergeCell ref="O2"/>
@@ -2232,16 +2233,6 @@
     <mergeCell ref="Q2"/>
     <mergeCell ref="R2"/>
     <mergeCell ref="S2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="L2"/>
-    <mergeCell ref="M2"/>
-    <mergeCell ref="N2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
@@ -2251,13 +2242,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,28 +2256,21 @@
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C1" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D1" s="8"/>
-      <c r="E1" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="23" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="33"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2296,9 +2280,6 @@
       </c>
       <c r="D3" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
